--- a/1036483_熊本電子ビジネス専門学校 電子パンフレット/【概要書】1036483_電子パンフレット2025.xlsx
+++ b/1036483_熊本電子ビジネス専門学校 電子パンフレット/【概要書】1036483_電子パンフレット2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】DocHub\1036483_熊本電子ビジネス専門学校 電子パンフレット\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\【Git】DocHub\1036483_熊本電子ビジネス専門学校 電子パンフレット\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61676EA-B6E4-4D3B-AC6A-F48D46EE81C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F251DA-9646-44C2-9F3E-241C3A46A2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interactive List (2)" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Masta" sheetId="3" r:id="rId4"/>
     <sheet name="issue" sheetId="4" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Interactive List (2)'!$G$11</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="238">
   <si>
     <t>ページ</t>
     <phoneticPr fontId="1"/>
@@ -1173,12 +1176,324 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>aaaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INdex10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページに移動　3ページ</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページに移動　4ページ</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページに移動　12ページ</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページに移動　15ページ</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>INdex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INdex08</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Index01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクを開く</t>
+    <rPh sb="4" eb="5">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gesture1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Link01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Link02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Link03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Link04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Link05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページに移動　6ページ</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページに移動　6ページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページに移動　7ページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページに移動　8ページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページに移動　10ページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページに移動　11ページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビデオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YouTube</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビデオ(2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>okamoto_01.mp</t>
+  </si>
+  <si>
+    <t>DC2山本君リール.mp</t>
+  </si>
+  <si>
+    <t>index01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Block02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Block03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rectangular  Basic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バナー透過-修正-再.png</t>
+  </si>
+  <si>
+    <t>バナー透過-修正.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページに移動　11ページ</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INdex02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Block04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Block05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクを開く　エフェクトを再生する</t>
+    <rPh sb="4" eb="5">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特別座談会</t>
+    <rPh sb="0" eb="5">
+      <t>トクベツザダンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロへの5つの道</t>
+    <rPh sb="7" eb="8">
+      <t>ミチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ITエンジニア科</t>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デジタルクリエイター科</t>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ITビジネス科</t>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療事務科</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジム</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総合ビジネス科</t>
+    <rPh sb="0" eb="2">
+      <t>ソウゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CGイラスト作品集</t>
+    <rPh sb="6" eb="9">
+      <t>サクヒンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裏表紙</t>
+    <rPh sb="0" eb="3">
+      <t>ウラビョウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資格取得</t>
+    <rPh sb="0" eb="4">
+      <t>シカクシュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>www.denbi.ac.jp/denbi-blog/3603/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>www.denbi.ac.jp/webcompe/work22/02/index.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>www.denbi.ac.jp/webcompe/work22/10/index.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>www.denbi.ac.jp/webcompe/work22/06/index.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>www.denbi.ac.jp/request/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>www.denbi.ac.jp/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>www.instagram.com/denbiacjp/?hl=ja</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1269,6 +1584,12 @@
       <name val="MS UI Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1377,7 +1698,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1488,6 +1809,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1855,8 +2179,8 @@
   </sheetPr>
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1864,7 +2188,7 @@
     <col min="1" max="1" width="8.625" style="1"/>
     <col min="2" max="2" width="5.875" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.125" style="1" customWidth="1"/>
     <col min="7" max="8" width="37.5" style="3" customWidth="1"/>
@@ -1916,361 +2240,511 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
+      <c r="B11" s="13">
+        <v>1</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="F11" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="G11" s="9"/>
       <c r="H11" s="20" t="str">
         <f>SUBSTITUTE(G11, "+", ":")</f>
         <v/>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="15"/>
+      <c r="J11" s="15" t="s">
+        <v>237</v>
+      </c>
       <c r="K11" s="15"/>
       <c r="L11" s="22"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="16"/>
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="8">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="21" t="str">
-        <f t="shared" ref="H12:H75" si="0">SUBSTITUTE(G12, "+", ":")</f>
-        <v/>
-      </c>
+      <c r="F12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H12" s="21"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="16"/>
+      <c r="J12" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K12" s="16"/>
       <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G13" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H13" s="21"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="16"/>
+      <c r="J13" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K13" s="16"/>
       <c r="L13" s="23"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="16"/>
+      <c r="C14" s="5">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G14" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H14" s="21"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="16"/>
+      <c r="J14" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K14" s="16"/>
       <c r="L14" s="23"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="16"/>
+      <c r="C15" s="5">
+        <v>4</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>182</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G15" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H15" s="21"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="16"/>
+      <c r="J15" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K15" s="16"/>
       <c r="L15" s="23"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="16"/>
+    <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B16" s="8">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>191</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="F16" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>234</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="16"/>
+      <c r="J16" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K16" s="16"/>
       <c r="L16" s="23"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B17" s="8"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="16"/>
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>189</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G17" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H17" s="50" t="s">
+        <v>234</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="16"/>
+      <c r="J17" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K17" s="16"/>
       <c r="L17" s="23"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="16"/>
+      <c r="C18" s="5">
+        <v>3</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>213</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
       <c r="H18" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H18:H75" si="0">SUBSTITUTE(G18, "+", ":")</f>
         <v/>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="16"/>
+      <c r="J18" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K18" s="16"/>
       <c r="L18" s="23"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="16"/>
+      <c r="B19" s="8">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="G19" s="4"/>
       <c r="H19" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="16"/>
+      <c r="J19" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K19" s="16"/>
       <c r="L19" s="23"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="16"/>
+      <c r="B20" s="8">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>168</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G20" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H20" s="21"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="16"/>
+      <c r="J20" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K20" s="16"/>
       <c r="L20" s="23"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="16"/>
+      <c r="C21" s="5">
+        <v>2</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>192</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G21" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H21" s="21"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="16"/>
+      <c r="J21" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K21" s="16"/>
       <c r="L21" s="23"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="16"/>
+      <c r="C22" s="5">
+        <v>3</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>209</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G22" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H22" s="21"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="16"/>
+      <c r="J22" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K22" s="16"/>
       <c r="L22" s="23"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="16"/>
+      <c r="C23" s="5">
+        <v>4</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G23" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H23" s="21"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="16"/>
+      <c r="J23" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K23" s="16"/>
       <c r="L23" s="23"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="16"/>
+      <c r="C24" s="5">
+        <v>5</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>210</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G24" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H24" s="21"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="16"/>
+      <c r="J24" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K24" s="16"/>
       <c r="L24" s="23"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="16"/>
+      <c r="C25" s="5">
+        <v>6</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G25" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H25" s="21"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="16"/>
+      <c r="J25" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K25" s="16"/>
       <c r="L25" s="23"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="16"/>
+      <c r="C26" s="5">
+        <v>7</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G26" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H26" s="21"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="16"/>
+      <c r="J26" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K26" s="16"/>
       <c r="L26" s="23"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="16"/>
+      <c r="C27" s="5">
+        <v>8</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G27" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H27" s="21"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="16"/>
+      <c r="J27" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K27" s="16"/>
       <c r="L27" s="23"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="16"/>
+      <c r="C28" s="5">
+        <v>9</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>218</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G28" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H28" s="21"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="16"/>
+      <c r="J28" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K28" s="16"/>
       <c r="L28" s="23"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="16"/>
+      <c r="C29" s="5">
+        <v>10</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>196</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G29" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H29" s="21"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="16"/>
+      <c r="J29" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K29" s="16"/>
       <c r="L29" s="23"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="16"/>
+    <row r="30" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B30" s="8">
+        <v>6</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="F30" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H30" s="50" t="s">
+        <v>176</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="16"/>
+      <c r="J30" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K30" s="16"/>
       <c r="L30" s="23"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="16"/>
+      <c r="B31" s="8">
+        <v>7</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="6"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="G31" s="4"/>
       <c r="H31" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="16"/>
+      <c r="J31" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K31" s="16"/>
       <c r="L31" s="23"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="16"/>
+    <row r="32" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B32" s="8">
+        <v>8</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="F32" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H32" s="50" t="s">
+        <v>177</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="16"/>
+      <c r="J32" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K32" s="16"/>
       <c r="L32" s="23"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="16"/>
+      <c r="B33" s="8">
+        <v>9</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" s="6"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="4"/>
@@ -2279,62 +2753,97 @@
         <v/>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="16"/>
+      <c r="J33" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K33" s="16"/>
       <c r="L33" s="23"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="16"/>
+    <row r="34" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B34" s="8">
+        <v>10</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>205</v>
+      </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="F34" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H34" s="50" t="s">
+        <v>178</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="16"/>
+      <c r="J34" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K34" s="16"/>
       <c r="L34" s="23"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="8"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="16"/>
+      <c r="B35" s="8">
+        <v>11</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="G35" s="4"/>
       <c r="H35" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="16"/>
+      <c r="J35" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K35" s="16"/>
       <c r="L35" s="23"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="8"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="16"/>
+      <c r="B36" s="8">
+        <v>12</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>206</v>
+      </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="G36" s="4"/>
       <c r="H36" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="16"/>
+      <c r="J36" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K36" s="16"/>
       <c r="L36" s="23"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="8"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="16"/>
+      <c r="C37" s="5">
+        <v>2</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>207</v>
+      </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="4"/>
@@ -2343,206 +2852,301 @@
         <v/>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="16"/>
+      <c r="J37" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K37" s="16"/>
       <c r="L37" s="23"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="8"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="16"/>
+    <row r="38" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B38" s="8">
+        <v>13</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>208</v>
+      </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G38" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H38" s="50" t="s">
+        <v>230</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="16"/>
+      <c r="J38" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K38" s="16"/>
       <c r="L38" s="23"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B39" s="8"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="16"/>
+      <c r="C39" s="5">
+        <v>2</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>168</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G39" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H39" s="50" t="s">
+        <v>231</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="16"/>
+      <c r="J39" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K39" s="16"/>
       <c r="L39" s="23"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B40" s="8"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="16"/>
+      <c r="C40" s="5">
+        <v>3</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>192</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G40" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H40" s="50" t="s">
+        <v>231</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="16"/>
+      <c r="J40" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K40" s="16"/>
       <c r="L40" s="23"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B41" s="8"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="16"/>
+      <c r="C41" s="5">
+        <v>4</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>209</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G41" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H41" s="50" t="s">
+        <v>232</v>
       </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="16"/>
+      <c r="J41" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K41" s="16"/>
       <c r="L41" s="23"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B42" s="8"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="16"/>
+      <c r="C42" s="5">
+        <v>5</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G42" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H42" s="50" t="s">
+        <v>232</v>
       </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="16"/>
+      <c r="J42" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K42" s="16"/>
       <c r="L42" s="23"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B43" s="8"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="16"/>
+      <c r="C43" s="5">
+        <v>6</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>210</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G43" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H43" s="50" t="s">
+        <v>233</v>
       </c>
       <c r="I43" s="2"/>
-      <c r="J43" s="16"/>
+      <c r="J43" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K43" s="16"/>
       <c r="L43" s="23"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B44" s="8"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="16"/>
+      <c r="C44" s="5">
+        <v>7</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G44" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H44" s="50" t="s">
+        <v>233</v>
       </c>
       <c r="I44" s="2"/>
-      <c r="J44" s="16"/>
+      <c r="J44" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K44" s="16"/>
       <c r="L44" s="23"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="8"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="16"/>
+      <c r="B45" s="8">
+        <v>14</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1</v>
+      </c>
+      <c r="D45" s="6"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="G45" s="4"/>
       <c r="H45" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I45" s="2"/>
-      <c r="J45" s="16"/>
+      <c r="J45" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K45" s="16"/>
       <c r="L45" s="23"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="8"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="16"/>
+      <c r="B46" s="8">
+        <v>15</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="4"/>
       <c r="H46" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(G46, "+", ":")</f>
         <v/>
       </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="16"/>
+      <c r="J46" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K46" s="16"/>
       <c r="L46" s="23"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="8"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="16"/>
+      <c r="B47" s="8">
+        <v>16</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1</v>
+      </c>
+      <c r="D47" s="6"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G47" s="4"/>
       <c r="H47" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(G47, "+", ":")</f>
         <v/>
       </c>
       <c r="I47" s="2"/>
-      <c r="J47" s="16"/>
+      <c r="J47" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K47" s="16"/>
       <c r="L47" s="23"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="8"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="16"/>
+    <row r="48" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B48" s="8">
+        <v>17</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>191</v>
+      </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G48" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H48" s="50" t="s">
+        <v>234</v>
       </c>
       <c r="I48" s="2"/>
-      <c r="J48" s="16"/>
+      <c r="J48" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K48" s="16"/>
       <c r="L48" s="23"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B49" s="8"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="16"/>
+      <c r="C49" s="5">
+        <v>2</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>211</v>
+      </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G49" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H49" s="50" t="s">
+        <v>234</v>
       </c>
       <c r="I49" s="2"/>
-      <c r="J49" s="16"/>
+      <c r="J49" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K49" s="16"/>
       <c r="L49" s="23"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="8"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="16"/>
+      <c r="C50" s="5">
+        <v>3</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>212</v>
+      </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="4"/>
@@ -2551,46 +3155,66 @@
         <v/>
       </c>
       <c r="I50" s="2"/>
-      <c r="J50" s="16"/>
+      <c r="J50" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K50" s="16"/>
       <c r="L50" s="23"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="8"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="16"/>
+    <row r="51" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B51" s="8">
+        <v>18</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>208</v>
+      </c>
       <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="F51" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="H51" s="50" t="s">
+        <v>235</v>
       </c>
       <c r="I51" s="2"/>
-      <c r="J51" s="16"/>
+      <c r="J51" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K51" s="16"/>
       <c r="L51" s="23"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B52" s="8"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="16"/>
+      <c r="C52" s="5">
+        <v>2</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>214</v>
+      </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G52" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="H52" s="50" t="s">
+        <v>236</v>
       </c>
       <c r="I52" s="2"/>
-      <c r="J52" s="16"/>
+      <c r="J52" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="K52" s="16"/>
       <c r="L52" s="23"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="8"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="16"/>
+      <c r="D53" s="6"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="4"/>
@@ -2606,7 +3230,7 @@
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="8"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="16"/>
+      <c r="D54" s="6"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="4"/>
@@ -2622,7 +3246,7 @@
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="16"/>
+      <c r="D55" s="6"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="4"/>
@@ -2638,7 +3262,7 @@
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="8"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="16"/>
+      <c r="D56" s="6"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="4"/>
@@ -2654,7 +3278,7 @@
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="8"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="16"/>
+      <c r="D57" s="6"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="4"/>
@@ -2670,7 +3294,7 @@
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="16"/>
+      <c r="D58" s="6"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="4"/>
@@ -2963,7 +3587,7 @@
       <c r="F76" s="2"/>
       <c r="G76" s="4"/>
       <c r="H76" s="21" t="str">
-        <f t="shared" ref="H76:H139" si="1">SUBSTITUTE(G76, "+", ":")</f>
+        <f t="shared" ref="H76:H84" si="1">SUBSTITUTE(G76, "+", ":")</f>
         <v/>
       </c>
       <c r="I76" s="2"/>
@@ -3091,7 +3715,7 @@
       <c r="F84" s="2"/>
       <c r="G84" s="4"/>
       <c r="H84" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>SUBSTITUTE(G84, "+", ":")</f>
         <v/>
       </c>
       <c r="I84" s="2"/>
@@ -3106,9 +3730,27 @@
       <formula>$L11="Done"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="H30" r:id="rId1" xr:uid="{931C4B5B-6A5F-4806-A803-63DC097299A9}"/>
+    <hyperlink ref="H32" r:id="rId2" xr:uid="{CF8F26F1-BE9A-4FDB-BB48-58EBA7F64AB8}"/>
+    <hyperlink ref="H34" r:id="rId3" xr:uid="{0B441830-3962-4D4B-8C8F-BEF8E79450CD}"/>
+    <hyperlink ref="H38" r:id="rId4" xr:uid="{9209FEB0-EEDC-45A6-AE5C-50A262EF4E04}"/>
+    <hyperlink ref="H39" r:id="rId5" xr:uid="{FA937D20-EFFD-470D-B79A-4746BCD75433}"/>
+    <hyperlink ref="H40" r:id="rId6" xr:uid="{6B832DB7-F354-46CE-93A6-3BEC66A963C9}"/>
+    <hyperlink ref="H41" r:id="rId7" xr:uid="{2771667B-1B22-43B4-8490-E49C8D73AD17}"/>
+    <hyperlink ref="H42" r:id="rId8" xr:uid="{9BF754A0-5F5E-495A-AF52-098E37F6CE20}"/>
+    <hyperlink ref="H43" r:id="rId9" xr:uid="{5901C436-1C0C-4117-8662-2A17539EACB1}"/>
+    <hyperlink ref="H44" r:id="rId10" xr:uid="{34478EA9-0184-4DF7-B8CA-3B9430940D0B}"/>
+    <hyperlink ref="H48" r:id="rId11" xr:uid="{10BABD55-DA2D-4CCA-913F-5F70389320B6}"/>
+    <hyperlink ref="H49" r:id="rId12" xr:uid="{619481C4-4B9A-46A0-9681-C34BACC19B07}"/>
+    <hyperlink ref="H51" r:id="rId13" xr:uid="{D99540C0-7EA0-4129-8753-D642EE032CF7}"/>
+    <hyperlink ref="H52" r:id="rId14" xr:uid="{0548D252-C258-4A24-A266-09C7543F0297}"/>
+    <hyperlink ref="H16" r:id="rId15" xr:uid="{2F9ED882-02F6-473A-B553-67DB6777E460}"/>
+    <hyperlink ref="H17" r:id="rId16" xr:uid="{E5DA262D-C493-44B3-8471-7FB4887BFE31}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId17"/>
+  <drawing r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -4084,10 +4726,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B2:B12"/>
+  <dimension ref="B2:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4127,6 +4769,11 @@
         <v>46</v>
       </c>
     </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>181</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1036483_熊本電子ビジネス専門学校 電子パンフレット/【概要書】1036483_電子パンフレット2025.xlsx
+++ b/1036483_熊本電子ビジネス専門学校 電子パンフレット/【概要書】1036483_電子パンフレット2025.xlsx
@@ -5,22 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\【Git】DocHub\1036483_熊本電子ビジネス専門学校 電子パンフレット\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】DocHub\1036483_熊本電子ビジネス専門学校 電子パンフレット\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F251DA-9646-44C2-9F3E-241C3A46A2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B97EB77-9E7A-4598-8A96-4C2DB09841CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Interactive List (2)" sheetId="6" r:id="rId1"/>
+    <sheet name="Interactive List" sheetId="6" r:id="rId1"/>
     <sheet name="画面使用memo" sheetId="5" r:id="rId2"/>
     <sheet name="基本仕様" sheetId="2" r:id="rId3"/>
     <sheet name="Masta" sheetId="3" r:id="rId4"/>
     <sheet name="issue" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Interactive List (2)'!$G$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Interactive List'!$A$1:$L$56</definedName>
+    <definedName name="チェック">Masta!$A$2:$A$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="248">
   <si>
     <t>ページ</t>
     <phoneticPr fontId="1"/>
@@ -1157,22 +1158,6 @@
     <t>透過</t>
     <rPh sb="0" eb="2">
       <t>トウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1036483_熊本電子ビジネス専門学校 電子パンフレット 2025</t>
-    <rPh sb="8" eb="10">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>デンシ</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>センモンガッコウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>デンシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1488,12 +1473,91 @@
     <t>OK</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>HomeIcon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>CHK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ホームアイコンからリクエストへ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EOF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Object</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Movie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頁数</t>
+    <rPh sb="0" eb="2">
+      <t>ページスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規作成</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◆赤字 新規造作</t>
+    <rPh sb="1" eb="3">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゾウサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1036483_熊本電子ビジネス専門学校 電子パンフレット 2025 作成概要書</t>
+    <rPh sb="8" eb="10">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>デンシ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>センモンガッコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>デンシ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>ガイヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1591,6 +1655,52 @@
       <name val="Segoe UI Symbol"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1608,12 +1718,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1641,8 +1745,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1693,12 +1803,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1721,8 +1901,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1749,12 +1929,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1765,9 +1939,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1801,23 +1975,188 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="14">
+    <dxf>
+      <border>
+        <top/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+      <border>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+      <border>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1842,16 +2181,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2514600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1866,7 +2205,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10344150" y="1447800"/>
+          <a:off x="657225" y="714375"/>
           <a:ext cx="3162300" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1901,6 +2240,86 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>URL : https://online.fliphtml5.com/thgcu/ilgg/</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2EE6E61-DAD0-4DF2-B8B6-4CB0EBEE9593}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="1000125"/>
+          <a:ext cx="4638675" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>リリース</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>: 4/18 (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>予定</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -2176,21 +2595,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE9737E-6208-4B0F-8DA5-11FDEF79103C}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L84"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="1"/>
+    <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="8" width="37.5" style="3" customWidth="1"/>
     <col min="9" max="9" width="18.875" style="1" customWidth="1"/>
     <col min="10" max="12" width="7.125" style="1" customWidth="1"/>
@@ -2199,26 +2619,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
-        <v>180</v>
+        <v>247</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="55">
+        <f>MAX(B12:B55)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="74" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="E10" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="F10" s="17" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>2</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>53</v>
@@ -2235,1522 +2669,1421 @@
       <c r="K10" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="13">
+    <row r="11" spans="1:12" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="49"/>
+      <c r="C11" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="68"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="I11" s="71"/>
+      <c r="J11" s="72" t="s">
+        <v>236</v>
+      </c>
+      <c r="K11" s="72" t="s">
+        <v>236</v>
+      </c>
+      <c r="L11" s="73"/>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="13">
         <v>1</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C12" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="14">
         <v>1</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="20" t="str">
-        <f>SUBSTITUTE(G11, "+", ":")</f>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="51" t="str">
+        <f>SUBSTITUTE(G12, "+", ":")</f>
         <v/>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="22"/>
-    </row>
-    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="8">
+      <c r="I12" s="48"/>
+      <c r="J12" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="8">
         <v>2</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="5">
         <v>1</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="23"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="5">
-        <v>2</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>242</v>
+      </c>
       <c r="G13" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H13" s="21"/>
+        <v>182</v>
+      </c>
+      <c r="H13" s="52"/>
       <c r="I13" s="2"/>
       <c r="J13" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="23"/>
+        <v>236</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L13" s="21"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="5">
-        <v>3</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="B14" s="8">
+        <f>B13</f>
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f>C13</f>
+        <v>目次</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>242</v>
+      </c>
       <c r="G14" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="H14" s="21"/>
+        <v>183</v>
+      </c>
+      <c r="H14" s="52"/>
       <c r="I14" s="2"/>
       <c r="J14" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="23"/>
+        <v>236</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L14" s="21"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="5">
-        <v>4</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="B15" s="8">
+        <f>B14</f>
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f>C14</f>
+        <v>目次</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>242</v>
+      </c>
       <c r="G15" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="H15" s="21"/>
+        <v>184</v>
+      </c>
+      <c r="H15" s="52"/>
       <c r="I15" s="2"/>
       <c r="J15" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="23"/>
-    </row>
-    <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.4">
+        <v>236</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L15" s="21"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
-        <v>3</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>220</v>
+        <f>B15</f>
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f>C15</f>
+        <v>目次</v>
+      </c>
+      <c r="D16" s="5">
+        <v>4</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>242</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H16" s="50" t="s">
-        <v>234</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="H16" s="52"/>
       <c r="I16" s="2"/>
       <c r="J16" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="23"/>
+        <v>236</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L16" s="21"/>
     </row>
     <row r="17" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B17" s="8"/>
-      <c r="C17" s="5">
-        <v>2</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="B17" s="8">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" s="58">
+        <v>1</v>
+      </c>
+      <c r="E17" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="G17" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H17" s="50" t="s">
-        <v>234</v>
+      <c r="H17" s="53" t="s">
+        <v>233</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="23"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="5">
+        <v>236</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L17" s="21"/>
+    </row>
+    <row r="18" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B18" s="8">
+        <f>B17</f>
         <v>3</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="21" t="str">
-        <f t="shared" ref="H18:H75" si="0">SUBSTITUTE(G18, "+", ":")</f>
-        <v/>
+      <c r="C18" s="2" t="str">
+        <f>C17</f>
+        <v>特別座談会</v>
+      </c>
+      <c r="D18" s="58">
+        <v>2</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="G18" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="H18" s="53" t="s">
+        <v>233</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="23"/>
+        <v>236</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L18" s="21"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
+        <f>B18</f>
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f>C18</f>
+        <v>特別座談会</v>
+      </c>
+      <c r="D19" s="58">
+        <v>3</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="F19" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="G19" s="60"/>
+      <c r="H19" s="52" t="str">
+        <f t="shared" ref="H19:H54" si="0">SUBSTITUTE(G19, "+", ":")</f>
+        <v/>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L19" s="21"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="8">
         <v>4</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C20" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" s="5">
         <v>1</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="21" t="str">
+      <c r="E20" s="6"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="23"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="8">
-        <v>5</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H20" s="21"/>
       <c r="I20" s="2"/>
       <c r="J20" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="23"/>
+        <v>236</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L20" s="21"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="5">
-        <v>2</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="B21" s="8">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2" t="str">
+        <f>C20</f>
+        <v>プロへの5つの道</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>242</v>
+      </c>
       <c r="G21" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="H21" s="21"/>
+        <v>196</v>
+      </c>
+      <c r="H21" s="52"/>
       <c r="I21" s="2"/>
       <c r="J21" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="23"/>
+        <v>236</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L21" s="21"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="5">
-        <v>3</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E22" s="2"/>
+      <c r="B22" s="8">
+        <f>B21</f>
+        <v>5</v>
+      </c>
+      <c r="C22" s="2" t="str">
+        <f t="shared" ref="C22:C30" si="1">C21</f>
+        <v>プロへの5つの道</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>191</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="H22" s="21"/>
+        <v>197</v>
+      </c>
+      <c r="H22" s="52"/>
       <c r="I22" s="2"/>
       <c r="J22" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="23"/>
+        <v>236</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L22" s="21"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="5">
-        <v>4</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="B23" s="8">
+        <f>B22</f>
+        <v>5</v>
+      </c>
+      <c r="C23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>プロへの5つの道</v>
+      </c>
+      <c r="D23" s="5">
+        <v>3</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>242</v>
+      </c>
       <c r="G23" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="H23" s="21"/>
+        <v>198</v>
+      </c>
+      <c r="H23" s="52"/>
       <c r="I23" s="2"/>
       <c r="J23" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="23"/>
+        <v>236</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L23" s="21"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="5">
+      <c r="B24" s="8">
+        <f>B23</f>
         <v>5</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E24" s="2"/>
+      <c r="C24" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>プロへの5つの道</v>
+      </c>
+      <c r="D24" s="5">
+        <v>4</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>192</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="H24" s="21"/>
+        <v>198</v>
+      </c>
+      <c r="H24" s="52"/>
       <c r="I24" s="2"/>
       <c r="J24" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K24" s="16"/>
-      <c r="L24" s="23"/>
+        <v>236</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L24" s="21"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="5">
-        <v>6</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="B25" s="8">
+        <f>B24</f>
+        <v>5</v>
+      </c>
+      <c r="C25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>プロへの5つの道</v>
+      </c>
+      <c r="D25" s="5">
+        <v>5</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>242</v>
+      </c>
       <c r="G25" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="H25" s="21"/>
+        <v>199</v>
+      </c>
+      <c r="H25" s="52"/>
       <c r="I25" s="2"/>
       <c r="J25" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K25" s="16"/>
-      <c r="L25" s="23"/>
+        <v>236</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L25" s="21"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="5">
-        <v>7</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="E26" s="2"/>
+      <c r="B26" s="8">
+        <f>B25</f>
+        <v>5</v>
+      </c>
+      <c r="C26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>プロへの5つの道</v>
+      </c>
+      <c r="D26" s="5">
+        <v>6</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H26" s="21"/>
+        <v>199</v>
+      </c>
+      <c r="H26" s="52"/>
       <c r="I26" s="2"/>
       <c r="J26" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K26" s="16"/>
-      <c r="L26" s="23"/>
+        <v>236</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L26" s="21"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="5">
-        <v>8</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="B27" s="8">
+        <f>B26</f>
+        <v>5</v>
+      </c>
+      <c r="C27" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>プロへの5つの道</v>
+      </c>
+      <c r="D27" s="5">
+        <v>7</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>242</v>
+      </c>
       <c r="G27" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H27" s="21"/>
+        <v>200</v>
+      </c>
+      <c r="H27" s="52"/>
       <c r="I27" s="2"/>
       <c r="J27" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K27" s="16"/>
-      <c r="L27" s="23"/>
+        <v>236</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L27" s="21"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="5">
-        <v>9</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E28" s="2"/>
+      <c r="B28" s="8">
+        <f>B27</f>
+        <v>5</v>
+      </c>
+      <c r="C28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>プロへの5つの道</v>
+      </c>
+      <c r="D28" s="5">
+        <v>8</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="H28" s="21"/>
+        <v>200</v>
+      </c>
+      <c r="H28" s="52"/>
       <c r="I28" s="2"/>
       <c r="J28" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K28" s="16"/>
-      <c r="L28" s="23"/>
+        <v>236</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L28" s="21"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
-      <c r="C29" s="5">
-        <v>10</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="B29" s="8">
+        <f>B28</f>
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>プロへの5つの道</v>
+      </c>
+      <c r="D29" s="5">
+        <v>9</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>242</v>
+      </c>
       <c r="G29" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="H29" s="21"/>
+        <v>201</v>
+      </c>
+      <c r="H29" s="52"/>
       <c r="I29" s="2"/>
       <c r="J29" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K29" s="16"/>
-      <c r="L29" s="23"/>
-    </row>
-    <row r="30" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
+        <v>236</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L29" s="21"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="8">
-        <v>6</v>
-      </c>
-      <c r="C30" s="5">
-        <v>1</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
-        <v>222</v>
-      </c>
+        <f>B29</f>
+        <v>5</v>
+      </c>
+      <c r="C30" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>プロへの5つの道</v>
+      </c>
+      <c r="D30" s="5">
+        <v>10</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="2"/>
       <c r="G30" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H30" s="50" t="s">
-        <v>176</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="H30" s="52"/>
       <c r="I30" s="2"/>
       <c r="J30" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K30" s="16"/>
-      <c r="L30" s="23"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L30" s="21"/>
+    </row>
+    <row r="31" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B31" s="8">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H31" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L31" s="21"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="8">
         <v>7</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C32" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D32" s="5">
         <v>1</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="21" t="str">
+      <c r="E32" s="6"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K31" s="16"/>
-      <c r="L31" s="23"/>
-    </row>
-    <row r="32" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B32" s="8">
-        <v>8</v>
-      </c>
-      <c r="C32" s="5">
-        <v>1</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H32" s="50" t="s">
-        <v>177</v>
-      </c>
       <c r="I32" s="2"/>
       <c r="J32" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K32" s="16"/>
-      <c r="L32" s="23"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L32" s="21"/>
+    </row>
+    <row r="33" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B33" s="8">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H33" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L33" s="21"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="8">
         <v>9</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C34" s="2" t="str">
+        <f t="shared" ref="C34" si="2">C33</f>
+        <v>ITビジネス科</v>
+      </c>
+      <c r="D34" s="5">
         <v>1</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="21" t="str">
+      <c r="E34" s="6"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K33" s="16"/>
-      <c r="L33" s="23"/>
-    </row>
-    <row r="34" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B34" s="8">
-        <v>10</v>
-      </c>
-      <c r="C34" s="5">
-        <v>1</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H34" s="50" t="s">
-        <v>178</v>
-      </c>
       <c r="I34" s="2"/>
       <c r="J34" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K34" s="16"/>
-      <c r="L34" s="23"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L34" s="21"/>
+    </row>
+    <row r="35" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B35" s="8">
+        <v>10</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H35" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L35" s="21"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="8">
         <v>11</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C36" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D36" s="5">
         <v>1</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="21" t="str">
+      <c r="E36" s="6"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K35" s="16"/>
-      <c r="L35" s="23"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="8">
+      <c r="I36" s="2"/>
+      <c r="J36" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L36" s="21"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="8">
         <v>12</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C37" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37" s="5">
         <v>1</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="21" t="str">
+      <c r="E37" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K36" s="16"/>
-      <c r="L36" s="23"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="8"/>
-      <c r="C37" s="5">
+      <c r="I37" s="2"/>
+      <c r="J37" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L37" s="21"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="8">
+        <f>B37</f>
+        <v>12</v>
+      </c>
+      <c r="C38" s="2" t="str">
+        <f t="shared" ref="C38:C53" si="3">C37</f>
+        <v>CGイラスト作品集</v>
+      </c>
+      <c r="D38" s="5">
         <v>2</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="21" t="str">
+      <c r="E38" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K37" s="16"/>
-      <c r="L37" s="23"/>
-    </row>
-    <row r="38" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B38" s="8">
-        <v>13</v>
-      </c>
-      <c r="C38" s="5">
-        <v>1</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H38" s="50" t="s">
-        <v>230</v>
-      </c>
       <c r="I38" s="2"/>
       <c r="J38" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K38" s="16"/>
-      <c r="L38" s="23"/>
+        <v>236</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L38" s="21"/>
     </row>
     <row r="39" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B39" s="8"/>
-      <c r="C39" s="5">
-        <v>2</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E39" s="2"/>
+      <c r="B39" s="8">
+        <v>13</v>
+      </c>
+      <c r="C39" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CGイラスト作品集</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>207</v>
+      </c>
       <c r="F39" s="2"/>
       <c r="G39" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H39" s="50" t="s">
-        <v>231</v>
+        <v>189</v>
+      </c>
+      <c r="H39" s="53" t="s">
+        <v>229</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K39" s="16"/>
-      <c r="L39" s="23"/>
+        <v>236</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L39" s="21"/>
     </row>
     <row r="40" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B40" s="8"/>
-      <c r="C40" s="5">
-        <v>3</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="B40" s="8">
+        <f>B39</f>
+        <v>13</v>
+      </c>
+      <c r="C40" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CGイラスト作品集</v>
+      </c>
+      <c r="D40" s="5">
+        <v>2</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>242</v>
+      </c>
       <c r="G40" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H40" s="50" t="s">
-        <v>231</v>
+        <v>189</v>
+      </c>
+      <c r="H40" s="53" t="s">
+        <v>230</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K40" s="16"/>
-      <c r="L40" s="23"/>
+        <v>236</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L40" s="21"/>
     </row>
     <row r="41" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B41" s="8"/>
-      <c r="C41" s="5">
-        <v>4</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E41" s="2"/>
+      <c r="B41" s="8">
+        <f>B40</f>
+        <v>13</v>
+      </c>
+      <c r="C41" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CGイラスト作品集</v>
+      </c>
+      <c r="D41" s="5">
+        <v>3</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>191</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H41" s="50" t="s">
-        <v>232</v>
+        <v>189</v>
+      </c>
+      <c r="H41" s="53" t="s">
+        <v>230</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K41" s="16"/>
-      <c r="L41" s="23"/>
+        <v>236</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L41" s="21"/>
     </row>
     <row r="42" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B42" s="8"/>
-      <c r="C42" s="5">
-        <v>5</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="B42" s="8">
+        <f>B41</f>
+        <v>13</v>
+      </c>
+      <c r="C42" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CGイラスト作品集</v>
+      </c>
+      <c r="D42" s="5">
+        <v>4</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>242</v>
+      </c>
       <c r="G42" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H42" s="50" t="s">
-        <v>232</v>
+        <v>189</v>
+      </c>
+      <c r="H42" s="53" t="s">
+        <v>231</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K42" s="16"/>
-      <c r="L42" s="23"/>
+        <v>236</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L42" s="21"/>
     </row>
     <row r="43" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B43" s="8"/>
-      <c r="C43" s="5">
-        <v>6</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E43" s="2"/>
+      <c r="B43" s="8">
+        <f>B42</f>
+        <v>13</v>
+      </c>
+      <c r="C43" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CGイラスト作品集</v>
+      </c>
+      <c r="D43" s="5">
+        <v>5</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>192</v>
+      </c>
       <c r="F43" s="2"/>
       <c r="G43" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H43" s="50" t="s">
-        <v>233</v>
+        <v>189</v>
+      </c>
+      <c r="H43" s="53" t="s">
+        <v>231</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K43" s="16"/>
-      <c r="L43" s="23"/>
+        <v>236</v>
+      </c>
+      <c r="K43" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L43" s="21"/>
     </row>
     <row r="44" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B44" s="8"/>
-      <c r="C44" s="5">
-        <v>7</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="B44" s="8">
+        <f>B43</f>
+        <v>13</v>
+      </c>
+      <c r="C44" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CGイラスト作品集</v>
+      </c>
+      <c r="D44" s="5">
+        <v>6</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>242</v>
+      </c>
       <c r="G44" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H44" s="50" t="s">
-        <v>233</v>
+        <v>189</v>
+      </c>
+      <c r="H44" s="53" t="s">
+        <v>232</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K44" s="16"/>
-      <c r="L44" s="23"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L44" s="21"/>
+    </row>
+    <row r="45" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B45" s="8">
+        <f>B44</f>
+        <v>13</v>
+      </c>
+      <c r="C45" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CGイラスト作品集</v>
+      </c>
+      <c r="D45" s="5">
+        <v>7</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H45" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L45" s="21"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="8">
         <v>14</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C46" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D46" s="5">
         <v>1</v>
       </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="21" t="str">
+      <c r="E46" s="6"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I45" s="2"/>
-      <c r="J45" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K45" s="16"/>
-      <c r="L45" s="23"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="8">
-        <v>15</v>
-      </c>
-      <c r="C46" s="5">
-        <v>1</v>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="21" t="str">
-        <f>SUBSTITUTE(G46, "+", ":")</f>
-        <v/>
-      </c>
       <c r="I46" s="2"/>
       <c r="J46" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K46" s="16"/>
-      <c r="L46" s="23"/>
+        <v>236</v>
+      </c>
+      <c r="K46" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L46" s="21"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="8">
-        <v>16</v>
-      </c>
-      <c r="C47" s="5">
+        <v>15</v>
+      </c>
+      <c r="C47" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>資格取得</v>
+      </c>
+      <c r="D47" s="5">
         <v>1</v>
       </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="2"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="21" t="str">
+      <c r="H47" s="52" t="str">
         <f>SUBSTITUTE(G47, "+", ":")</f>
         <v/>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K47" s="16"/>
-      <c r="L47" s="23"/>
-    </row>
-    <row r="48" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
+        <v>236</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L47" s="21"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="8">
-        <v>17</v>
-      </c>
-      <c r="C48" s="5">
+        <v>16</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" s="5">
         <v>1</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E48" s="2"/>
+      <c r="E48" s="6"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H48" s="50" t="s">
-        <v>234</v>
+      <c r="G48" s="4"/>
+      <c r="H48" s="52" t="str">
+        <f>SUBSTITUTE(G48, "+", ":")</f>
+        <v/>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K48" s="16"/>
-      <c r="L48" s="23"/>
+        <v>236</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L48" s="21"/>
     </row>
     <row r="49" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B49" s="8"/>
-      <c r="C49" s="5">
+      <c r="B49" s="56">
+        <v>17</v>
+      </c>
+      <c r="C49" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="58">
+        <v>1</v>
+      </c>
+      <c r="E49" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="F49" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="G49" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="H49" s="61" t="s">
+        <v>233</v>
+      </c>
+      <c r="I49" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="J49" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="K49" s="63" t="s">
+        <v>238</v>
+      </c>
+      <c r="L49" s="21"/>
+    </row>
+    <row r="50" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B50" s="56">
+        <f>B49</f>
+        <v>17</v>
+      </c>
+      <c r="C50" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v>資料請求</v>
+      </c>
+      <c r="D50" s="58">
         <v>2</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="E50" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="F50" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="G50" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="H50" s="61" t="s">
+        <v>233</v>
+      </c>
+      <c r="I50" s="57"/>
+      <c r="J50" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="K50" s="63" t="s">
+        <v>238</v>
+      </c>
+      <c r="L50" s="21"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="56">
+        <f>B50</f>
+        <v>17</v>
+      </c>
+      <c r="C51" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v>資料請求</v>
+      </c>
+      <c r="D51" s="58">
+        <v>3</v>
+      </c>
+      <c r="E51" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H49" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="I49" s="2"/>
-      <c r="J49" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K49" s="16"/>
-      <c r="L49" s="23"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="8"/>
-      <c r="C50" s="5">
-        <v>3</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="21" t="str">
+      <c r="F51" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="G51" s="60"/>
+      <c r="H51" s="64" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I50" s="2"/>
-      <c r="J50" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K50" s="16"/>
-      <c r="L50" s="23"/>
-    </row>
-    <row r="51" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B51" s="8">
+      <c r="I51" s="57"/>
+      <c r="J51" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="K51" s="63" t="s">
+        <v>238</v>
+      </c>
+      <c r="L51" s="21"/>
+    </row>
+    <row r="52" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B52" s="8">
         <v>18</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C52" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D52" s="5">
         <v>1</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="H51" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="I51" s="2"/>
-      <c r="J51" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K51" s="16"/>
-      <c r="L51" s="23"/>
-    </row>
-    <row r="52" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B52" s="8"/>
-      <c r="C52" s="5">
-        <v>2</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+      <c r="E52" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>242</v>
+      </c>
       <c r="G52" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="H52" s="50" t="s">
-        <v>236</v>
+        <v>218</v>
+      </c>
+      <c r="H52" s="53" t="s">
+        <v>234</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K52" s="16"/>
-      <c r="L52" s="23"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="8"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>236</v>
+      </c>
+      <c r="K52" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L52" s="21"/>
+    </row>
+    <row r="53" spans="2:12" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B53" s="8">
+        <f>B52</f>
+        <v>18</v>
+      </c>
+      <c r="C53" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>裏表紙</v>
+      </c>
+      <c r="D53" s="5">
+        <v>2</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H53" s="53" t="s">
+        <v>235</v>
       </c>
       <c r="I53" s="2"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="23"/>
+      <c r="J53" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="K53" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L53" s="21"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="8"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="6"/>
       <c r="F54" s="2"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="21" t="str">
+      <c r="H54" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="16"/>
       <c r="K54" s="16"/>
-      <c r="L54" s="23"/>
+      <c r="L54" s="21"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="16"/>
       <c r="F55" s="2"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="21" t="str">
-        <f t="shared" si="0"/>
+      <c r="H55" s="52" t="str">
+        <f>SUBSTITUTE(G55, "+", ":")</f>
         <v/>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="16"/>
       <c r="K55" s="16"/>
-      <c r="L55" s="23"/>
+      <c r="L55" s="21"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="8"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I56" s="2"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="23"/>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="8"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I57" s="2"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="23"/>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="8"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I58" s="2"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="23"/>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="8"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I59" s="2"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="23"/>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="8"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I60" s="2"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="23"/>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="8"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I61" s="2"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="23"/>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="8"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I62" s="2"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="23"/>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="8"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I63" s="2"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="23"/>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="8"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I64" s="2"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="23"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="8"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I65" s="2"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="23"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="8"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I66" s="2"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="23"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="8"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I67" s="2"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="23"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B68" s="8"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I68" s="2"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="23"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="8"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I69" s="2"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="23"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="8"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I70" s="2"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="23"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" s="8"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I71" s="2"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="23"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B72" s="8"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I72" s="2"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="23"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B73" s="8"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I73" s="2"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="23"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B74" s="8"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I74" s="2"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="23"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B75" s="8"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I75" s="2"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-      <c r="L75" s="23"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B76" s="8"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="21" t="str">
-        <f t="shared" ref="H76:H84" si="1">SUBSTITUTE(G76, "+", ":")</f>
-        <v/>
-      </c>
-      <c r="I76" s="2"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="16"/>
-      <c r="L76" s="23"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B77" s="8"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I77" s="2"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="16"/>
-      <c r="L77" s="23"/>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B78" s="8"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I78" s="2"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="16"/>
-      <c r="L78" s="23"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B79" s="8"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I79" s="2"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="16"/>
-      <c r="L79" s="23"/>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="8"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I80" s="2"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="16"/>
-      <c r="L80" s="23"/>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B81" s="8"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I81" s="2"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="16"/>
-      <c r="L81" s="23"/>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B82" s="8"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I82" s="2"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="16"/>
-      <c r="L82" s="23"/>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B83" s="8"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I83" s="2"/>
-      <c r="J83" s="16"/>
-      <c r="K83" s="16"/>
-      <c r="L83" s="23"/>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B84" s="8"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="21" t="str">
-        <f>SUBSTITUTE(G84, "+", ":")</f>
-        <v/>
-      </c>
-      <c r="I84" s="2"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="16"/>
-      <c r="L84" s="23"/>
+      <c r="B56" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="C56" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="D56" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="E56" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="F56" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="G56" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="H56" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="I56" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="J56" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="K56" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="L56" s="54" t="s">
+        <v>241</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B11:I84">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$L11="Done"</formula>
+  <conditionalFormatting sqref="B12:I55">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>$L12="Done"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B12:K54">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>MOD($B12, 2) = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C55">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>AND(MOD($B12, 2) = 0, $B12 = $B11)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>AND(MOD($B12, 2) = 1, $B12 = $B11)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:I55">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND(MOD($B12, 2) = 0, $B12 = $B11)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>AND(MOD($B12, 2) = 1, $B12 = $B11)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J12:K55" xr:uid="{5B88B86D-86B8-4450-85F9-49F91A736232}">
+      <formula1>チェック</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H30" r:id="rId1" xr:uid="{931C4B5B-6A5F-4806-A803-63DC097299A9}"/>
-    <hyperlink ref="H32" r:id="rId2" xr:uid="{CF8F26F1-BE9A-4FDB-BB48-58EBA7F64AB8}"/>
-    <hyperlink ref="H34" r:id="rId3" xr:uid="{0B441830-3962-4D4B-8C8F-BEF8E79450CD}"/>
-    <hyperlink ref="H38" r:id="rId4" xr:uid="{9209FEB0-EEDC-45A6-AE5C-50A262EF4E04}"/>
-    <hyperlink ref="H39" r:id="rId5" xr:uid="{FA937D20-EFFD-470D-B79A-4746BCD75433}"/>
-    <hyperlink ref="H40" r:id="rId6" xr:uid="{6B832DB7-F354-46CE-93A6-3BEC66A963C9}"/>
-    <hyperlink ref="H41" r:id="rId7" xr:uid="{2771667B-1B22-43B4-8490-E49C8D73AD17}"/>
-    <hyperlink ref="H42" r:id="rId8" xr:uid="{9BF754A0-5F5E-495A-AF52-098E37F6CE20}"/>
-    <hyperlink ref="H43" r:id="rId9" xr:uid="{5901C436-1C0C-4117-8662-2A17539EACB1}"/>
-    <hyperlink ref="H44" r:id="rId10" xr:uid="{34478EA9-0184-4DF7-B8CA-3B9430940D0B}"/>
-    <hyperlink ref="H48" r:id="rId11" xr:uid="{10BABD55-DA2D-4CCA-913F-5F70389320B6}"/>
-    <hyperlink ref="H49" r:id="rId12" xr:uid="{619481C4-4B9A-46A0-9681-C34BACC19B07}"/>
-    <hyperlink ref="H51" r:id="rId13" xr:uid="{D99540C0-7EA0-4129-8753-D642EE032CF7}"/>
-    <hyperlink ref="H52" r:id="rId14" xr:uid="{0548D252-C258-4A24-A266-09C7543F0297}"/>
-    <hyperlink ref="H16" r:id="rId15" xr:uid="{2F9ED882-02F6-473A-B553-67DB6777E460}"/>
-    <hyperlink ref="H17" r:id="rId16" xr:uid="{E5DA262D-C493-44B3-8471-7FB4887BFE31}"/>
+    <hyperlink ref="H31" r:id="rId1" xr:uid="{931C4B5B-6A5F-4806-A803-63DC097299A9}"/>
+    <hyperlink ref="H33" r:id="rId2" xr:uid="{CF8F26F1-BE9A-4FDB-BB48-58EBA7F64AB8}"/>
+    <hyperlink ref="H35" r:id="rId3" xr:uid="{0B441830-3962-4D4B-8C8F-BEF8E79450CD}"/>
+    <hyperlink ref="H39" r:id="rId4" xr:uid="{9209FEB0-EEDC-45A6-AE5C-50A262EF4E04}"/>
+    <hyperlink ref="H40" r:id="rId5" xr:uid="{FA937D20-EFFD-470D-B79A-4746BCD75433}"/>
+    <hyperlink ref="H41" r:id="rId6" xr:uid="{6B832DB7-F354-46CE-93A6-3BEC66A963C9}"/>
+    <hyperlink ref="H42" r:id="rId7" xr:uid="{2771667B-1B22-43B4-8490-E49C8D73AD17}"/>
+    <hyperlink ref="H43" r:id="rId8" xr:uid="{9BF754A0-5F5E-495A-AF52-098E37F6CE20}"/>
+    <hyperlink ref="H44" r:id="rId9" xr:uid="{5901C436-1C0C-4117-8662-2A17539EACB1}"/>
+    <hyperlink ref="H45" r:id="rId10" xr:uid="{34478EA9-0184-4DF7-B8CA-3B9430940D0B}"/>
+    <hyperlink ref="H49" r:id="rId11" xr:uid="{10BABD55-DA2D-4CCA-913F-5F70389320B6}"/>
+    <hyperlink ref="H50" r:id="rId12" xr:uid="{619481C4-4B9A-46A0-9681-C34BACC19B07}"/>
+    <hyperlink ref="H52" r:id="rId13" xr:uid="{D99540C0-7EA0-4129-8753-D642EE032CF7}"/>
+    <hyperlink ref="H53" r:id="rId14" xr:uid="{0548D252-C258-4A24-A266-09C7543F0297}"/>
+    <hyperlink ref="H17" r:id="rId15" xr:uid="{2F9ED882-02F6-473A-B553-67DB6777E460}"/>
+    <hyperlink ref="H18" r:id="rId16" xr:uid="{E5DA262D-C493-44B3-8471-7FB4887BFE31}"/>
+    <hyperlink ref="H11" r:id="rId17" xr:uid="{9D37F876-F10A-451A-81B0-5E9BE43F5EEC}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId17"/>
-  <drawing r:id="rId18"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="49" orientation="portrait" r:id="rId18"/>
+  <drawing r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -3777,341 +4110,341 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="42" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="45"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40" t="s">
+      <c r="E6" s="37"/>
+      <c r="F6" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="46"/>
+      <c r="H6" s="44"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="44">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="44">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="48" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="44" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="48" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="H10" s="46"/>
-      <c r="L10" s="43" t="s">
+      <c r="H10" s="44"/>
+      <c r="L10" s="41" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="48" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="G11" s="49" t="s">
+      <c r="G11" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="H11" s="46"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="48" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="H12" s="46"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="48" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="H13" s="46"/>
+      <c r="H13" s="44"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="H14" s="46"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="H15" s="46"/>
+      <c r="H15" s="44"/>
       <c r="J15" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40" t="s">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="H16" s="46"/>
+      <c r="H16" s="44"/>
       <c r="J16" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40" t="s">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G17" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="H17" s="46"/>
+      <c r="H17" s="44"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="46"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="44"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="34" t="s">
+      <c r="E19" s="30"/>
+      <c r="F19" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="45"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="43"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="45"/>
-      <c r="J20" s="41" t="s">
+      <c r="E20" s="30"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="43"/>
+      <c r="J20" s="39" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33" t="s">
+      <c r="E21" s="30"/>
+      <c r="F21" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="G21" s="32" t="s">
+      <c r="G21" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="H21" s="45"/>
-      <c r="J21" s="41"/>
+      <c r="H21" s="43"/>
+      <c r="J21" s="39"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33" t="s">
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="32"/>
-      <c r="H22" s="45"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="43"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33" t="s">
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="45"/>
-      <c r="J23" s="41" t="s">
+      <c r="G23" s="30"/>
+      <c r="H23" s="43"/>
+      <c r="J23" s="39" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="24" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33" t="s">
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="G24" s="32"/>
-      <c r="H24" s="45"/>
-      <c r="J24" s="42" t="s">
+      <c r="G24" s="30"/>
+      <c r="H24" s="43"/>
+      <c r="J24" s="40" t="s">
         <v>176</v>
       </c>
       <c r="O24" s="1" t="s">
@@ -4119,314 +4452,314 @@
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33" t="s">
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="45"/>
-      <c r="J25" s="41"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="43"/>
+      <c r="J25" s="39"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="34" t="s">
         <v>105</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="30" t="s">
+      <c r="E26" s="27"/>
+      <c r="F26" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="G26" s="29"/>
-      <c r="H26" s="47"/>
-      <c r="J26" s="41" t="s">
+      <c r="G26" s="27"/>
+      <c r="H26" s="45"/>
+      <c r="J26" s="39" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="27" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="34" t="s">
         <v>106</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="47"/>
-      <c r="J27" s="42" t="s">
+      <c r="E27" s="27"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="45"/>
+      <c r="J27" s="40" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="34" t="s">
         <v>107</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="30" t="s">
+      <c r="E28" s="27"/>
+      <c r="F28" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="47"/>
-      <c r="J28" s="41"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="45"/>
+      <c r="J28" s="39"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="34" t="s">
         <v>108</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="47"/>
-      <c r="J29" s="41" t="s">
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="45"/>
+      <c r="J29" s="39" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="30" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="34" t="s">
         <v>109</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="30" t="s">
+      <c r="E30" s="27"/>
+      <c r="F30" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="47"/>
-      <c r="J30" s="42" t="s">
+      <c r="G30" s="27"/>
+      <c r="H30" s="45"/>
+      <c r="J30" s="40" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="34" t="s">
         <v>114</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="47"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="45"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="34" t="s">
         <v>110</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="30" t="s">
+      <c r="E32" s="27"/>
+      <c r="F32" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="47"/>
-      <c r="J32" s="41"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="45"/>
+      <c r="J32" s="39"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="34" t="s">
         <v>111</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="30" t="s">
+      <c r="E33" s="27"/>
+      <c r="F33" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="47"/>
-      <c r="J33" s="41" t="s">
+      <c r="G33" s="27"/>
+      <c r="H33" s="45"/>
+      <c r="J33" s="39" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="34" t="s">
         <v>111</v>
       </c>
       <c r="D34" s="2"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="30" t="s">
+      <c r="E34" s="27"/>
+      <c r="F34" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="47"/>
-      <c r="J34" s="42" t="s">
+      <c r="G34" s="27"/>
+      <c r="H34" s="45"/>
+      <c r="J34" s="40" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="34" t="s">
         <v>111</v>
       </c>
       <c r="D35" s="2"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="30" t="s">
+      <c r="E35" s="27"/>
+      <c r="F35" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="G35" s="29"/>
-      <c r="H35" s="47"/>
-      <c r="J35" s="41"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="45"/>
+      <c r="J35" s="39"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="30" t="s">
+      <c r="E36" s="27"/>
+      <c r="F36" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="G36" s="29"/>
-      <c r="H36" s="47"/>
-      <c r="J36" s="41"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="45"/>
+      <c r="J36" s="39"/>
     </row>
     <row r="37" spans="2:10" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="34" t="s">
         <v>112</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="47"/>
-      <c r="J37" s="43" t="s">
+      <c r="E37" s="27"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="45"/>
+      <c r="J37" s="41" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="34" t="s">
         <v>113</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="47"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="45"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="34" t="s">
         <v>115</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E39" s="29"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="47"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="45"/>
       <c r="J39" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="34" t="s">
         <v>116</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="47"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="45"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="34" t="s">
         <v>117</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="47"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="45"/>
       <c r="J41" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="47"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="45"/>
       <c r="J42" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="47"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="45"/>
       <c r="J43" s="1" t="s">
         <v>152</v>
       </c>
@@ -4469,7 +4802,7 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="3" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="23" t="s">
         <v>3</v>
       </c>
       <c r="N3" t="s">
@@ -4521,7 +4854,7 @@
       </c>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="23" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4544,7 +4877,7 @@
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="23" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4559,7 +4892,7 @@
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="23" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4590,14 +4923,25 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="50" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="50" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -4771,7 +5115,7 @@
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
